--- a/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
+++ b/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0484690942141995</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0074563032928516</v>
+        <v>0.992543696707148</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.07928921194338651</v>
+        <v>0.920710788056613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7.80529788029561e-05</v>
+        <v>0.999921947021197</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.029671439767147</v>
+        <v>0.0045982444259109</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0404624277456647</v>
+        <v>0.05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.653179190751445</v>
+        <v>0.65</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.18</v>
+        <v>1.275</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0165670038774771</v>
+        <v>-0.0423442164870514</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0359014114805688</v>
+        <v>-0.074418366856351</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0022330256681146</v>
+        <v>-0.0107183049553933</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.40398337944721</v>
+        <v>-3.32111501859227</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.993395245340376</v>
+        <v>0.268073046380173</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0761904761904762</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.152380952380952</v>
+        <v>0.869318181818182</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.011</v>
+        <v>10.61</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0001820333914776</v>
+        <v>-0.008577299412915899</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0003077921393985</v>
+        <v>-0.0290680177457017</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.0124390125295933</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.65484901343361</v>
+        <v>-0.0808416532791322</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3086,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.824426940863774</v>
+        <v>0.377279770637229</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0047619047619047</v>
+        <v>0.08522727272727269</v>
       </c>
       <c r="H30" t="n">
-        <v>0.619047619047619</v>
+        <v>0.136363636363636</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>215</v>
+        <v>0.01</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.85990543161979</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-5.44226826333854</v>
+        <v>-0.0001107280914448</v>
       </c>
       <c r="M30" t="n">
-        <v>1.47087985595178</v>
+        <v>0.0001512669923384</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.865072293776645</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.999999999999971</v>
+        <v>0.574105154475596</v>
       </c>
       <c r="G31" t="n">
-        <v>0.683168316831683</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H31" t="n">
-        <v>0.336633663366337</v>
+        <v>0.6590909090909089</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>211</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.152342951991828</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-5.34033868636744</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.25629175669405</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.0722004511809613</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3268,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3283,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.953347582182184</v>
+        <v>0.999999986545504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.125</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="H32" t="n">
-        <v>0.755208333333333</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2185</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0017308603622577</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0043234308394656</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.792155772200363</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.998589243898289</v>
+        <v>0.682110028974418</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.341935483870968</v>
       </c>
       <c r="H33" t="n">
-        <v>0.819047619047619</v>
+        <v>0.109677419354839</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2245</v>
+        <v>0.003</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0042097969264544</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0067612295504016</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001675062073444</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.87518794051423</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.850452727054501</v>
+        <v>0.246765855914309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.139240506329114</v>
       </c>
       <c r="H34" t="n">
-        <v>0.923076923076923</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.99</v>
+        <v>0.1895</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0191306794278502</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.061910730008121</v>
+        <v>-0.0005241599905438</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0162612654912057</v>
+        <v>0.0034656706348331</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.639822054443151</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3528,6 +3528,1094 @@
         </is>
       </c>
       <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999663886761</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.474285714285714</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0256091148115688</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0170356046227705</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0336635944700466</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.335637153493694</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.687121799348968</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0397727272727273</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.806818181818182</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0007128220140515</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0037032345321482</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0019976349958494</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.371261465651834</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.85588339033399</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.602272727272727</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0033379026730637</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0072410001712834</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0012956806225404</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.878395440279932</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.395148109952391</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.426136363636364</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0002484693877551</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0003636927985618</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.52959215677244</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.948571428571429</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0021844006977323</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0430912048851873</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0415853722747293</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.0870279162443176</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.029671439767147</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0404624277456647</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.653179190751445</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0165670038774771</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0359014114805688</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0022330256681146</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.40398337944721</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.993395245340376</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0761904761904762</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.152380952380952</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0001820333914776</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0003077921393985</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.65484901343361</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.824426940863774</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0047619047619047</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>215</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1.85990543161979</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-5.44226826333854</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.47087985595178</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.865072293776645</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.999999999999971</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.683168316831683</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.336633663366337</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.953347582182184</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.755208333333333</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2185</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0017308603622577</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0043234308394656</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.792155772200363</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.998589243898289</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.819047619047619</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0042097969264544</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0067612295504016</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.001675062073444</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.87518794051423</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oroua at U/S AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.850452727054501</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0191306794278502</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.061910730008121</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0162612654912057</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.639822054443151</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1819686</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5543299</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
+++ b/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.643164829451742</v>
+        <v>0.701211591335973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0540540540540541</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.864864864864865</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.215</v>
+        <v>0.14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009524265655810099</v>
+        <v>0.0161069523083624</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.06882549930332291</v>
+        <v>-0.0687196221252479</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0601607994906912</v>
+        <v>0.0355823608512662</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4298910027024</v>
+        <v>11.5049659345445</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9515309057858</v>
+        <v>0.693284313522417</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.73</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08237715855573</v>
+        <v>0.0688240542352385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0026708373938225</v>
+        <v>-0.0337756153413962</v>
       </c>
       <c r="M3" t="n">
-        <v>0.179852717316354</v>
+        <v>0.153288292633882</v>
       </c>
       <c r="N3" t="n">
-        <v>0.76772747955014</v>
+        <v>0.641417094457023</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6886614964168291</v>
+        <v>0.0567971089797818</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.389830508474576</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0007905844155844</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0012643896425393</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0006324675324675001</v>
+        <v>0.0017392857142857</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.90584415584416</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8078989382767791</v>
+        <v>0.128864511560885</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.76271186440678</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>-13.7312030075188</v>
+        <v>19.0234375</v>
       </c>
       <c r="L5" t="n">
-        <v>-39.892656878558</v>
+        <v>-6.95812870536007</v>
       </c>
       <c r="M5" t="n">
-        <v>14.3627450892779</v>
+        <v>59.2609327273473</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.8656015037594</v>
+        <v>11.8896484375</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,15 +933,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
+          <t>&lt; 3 unique values</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.942307692307692</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>0.691470951066496</v>
       </c>
       <c r="G7" t="n">
         <v>0.389830508474576</v>
       </c>
       <c r="H7" t="n">
-        <v>0.135593220338983</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.096383983600694</v>
+        <v>0.0002571861240011</v>
       </c>
       <c r="G8" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.179</v>
+        <v>0.209</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0198488814756672</v>
+        <v>0.0362369173165544</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0036285828456038</v>
+        <v>0.0185828033729947</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0369771722766255</v>
+        <v>0.0612675466152047</v>
       </c>
       <c r="N8" t="n">
-        <v>11.0887606009314</v>
+        <v>17.3382379505045</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.992543696707148</v>
+        <v>0.391591287251002</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.72</v>
+        <v>7.74</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0434821428571429</v>
+        <v>-0.0046947300771207</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0152587577647124</v>
+        <v>-0.0352682385166003</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0742375151664597</v>
+        <v>0.0318751082707684</v>
       </c>
       <c r="N9" t="n">
-        <v>0.563240192450038</v>
+        <v>-0.0606554273529809</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.07392756892108571</v>
+        <v>0.0002571861240011</v>
       </c>
       <c r="G10" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.898305084745763</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.189</v>
+        <v>0.222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0208956742270887</v>
+        <v>0.0405944292549556</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0042071886888364</v>
+        <v>0.0221655166703701</v>
       </c>
       <c r="M10" t="n">
-        <v>0.034313144859624</v>
+        <v>0.06380703826927039</v>
       </c>
       <c r="N10" t="n">
-        <v>11.0559122894649</v>
+        <v>18.2857789436737</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.848767124540647</v>
+        <v>6.0270289221953e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.152542372881356</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.542372881355932</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.41</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.81378982859246</v>
+        <v>0.0519733950490765</v>
       </c>
       <c r="L11" t="n">
-        <v>-5.83002858292531</v>
+        <v>0.0350636687456781</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08151384286233369</v>
+        <v>0.0806738119176188</v>
       </c>
       <c r="N11" t="n">
-        <v>-16.2757965718492</v>
+        <v>12.6764378168479</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.413853687854465</v>
+        <v>0.0456379939654769</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.711864406779661</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.36</v>
+        <v>0.022</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.0022490763546798</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.025564670459189</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0379176704614848</v>
+        <v>0.0046623895492169</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78731684981685</v>
+        <v>10.2230743394536</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.774178794245875</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6610169491525421</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02</v>
+        <v>3.53</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0010332390381895</v>
+        <v>0.176495743508084</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0064949498257541</v>
+        <v>-0.202825926091272</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0013283480858846</v>
+        <v>0.796096814877901</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.16619519094767</v>
+        <v>4.99987941949247</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.97432583371837</v>
+        <v>0.000532015369447</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0574712643678161</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.804597701149425</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>0.455</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.415936142633955</v>
+        <v>-0.0695240207915467</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.94093393397889</v>
+        <v>-0.147297492139212</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.118040959170835</v>
+        <v>-0.0313901283431071</v>
       </c>
       <c r="N14" t="n">
-        <v>-16.9769854136308</v>
+        <v>-15.2800045695707</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.001894581405246</v>
+        <v>0.90412746054159</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0549450549450549</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8</v>
+        <v>10.59</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0689150943396226</v>
+        <v>0.0321098901098901</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.128130559220909</v>
+        <v>-0.0099704296963783</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0199914741754</v>
+        <v>0.06622679948756489</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.61438679245283</v>
+        <v>0.303209538337017</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.920710788056613</v>
+        <v>0.276116469544887</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H16" t="n">
-        <v>0.915966386554622</v>
+        <v>0.184873949579832</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>10.59</v>
+        <v>0.011</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0295350404312662</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0033235622482206</v>
+        <v>-0.0001332400836832</v>
       </c>
       <c r="M16" t="n">
-        <v>0.057421512794498</v>
+        <v>0.0003415783985479</v>
       </c>
       <c r="N16" t="n">
-        <v>0.278895565923194</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1918,35 +1918,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.505515374984753</v>
+        <v>0.708518955573208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0756302521008403</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H17" t="n">
-        <v>0.176470588235294</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.011</v>
+        <v>215</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-3.32347588717015</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002595948827292</v>
+        <v>-13.8200618195722</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0002398426919683</v>
+        <v>7.21548860025881</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.54580273821868</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.827484496766159</v>
+        <v>0.801647587504535</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="H18" t="n">
-        <v>0.65546218487395</v>
+        <v>0.0720720720720721</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>210</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.21785714285714</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-14.2706819763586</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5481045946415</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.48469387755102</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,40 +2089,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.899376082047542</v>
+        <v>0.996196925410062</v>
       </c>
       <c r="G19" t="n">
-        <v>0.936936936936937</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0900900900900901</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002118471955237</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.995719041551968</v>
+        <v>0.0009216716876499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.252100840336134</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.142857142857143</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.209</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0001248291182501</v>
+        <v>0.008361950549450501</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0.001966729505147</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0134285200798416</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.16097060833903</v>
+        <v>4.00093327724907</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,14 +2271,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2286,31 +2286,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0007923642348473</v>
+        <v>0.984584052685879</v>
       </c>
       <c r="G21" t="n">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.157</v>
+        <v>7.685</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0058533653846153</v>
+        <v>0.0149938423645321</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009001097759075</v>
+        <v>0.0031255987083033</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0110888392751527</v>
+        <v>0.0265857801531647</v>
       </c>
       <c r="N21" t="n">
-        <v>3.72825820676139</v>
+        <v>0.195105300774653</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2348,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,14 +2358,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2373,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999921947021197</v>
+        <v>0.0019176389445339</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5169491525423729</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.67</v>
+        <v>0.222</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0243635352973875</v>
+        <v>0.009164575729927</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0137312030075185</v>
+        <v>0.0040193656052017</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0354386462514581</v>
+        <v>0.014183720902255</v>
       </c>
       <c r="N22" t="n">
-        <v>0.317647135559159</v>
+        <v>4.12818726573289</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2406,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2435,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,31 +2464,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0028315785428344</v>
+        <v>0.0581967915044777</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0504201680672269</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.789915966386555</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.172</v>
+        <v>0.41</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0069856557377049</v>
+        <v>0.007996715927750401</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0016135941231619</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0117513855886591</v>
+        <v>0.0166704701049749</v>
       </c>
       <c r="N23" t="n">
-        <v>4.0614277544796</v>
+        <v>1.95041851896351</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2551,32 +2551,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.446859910443148</v>
+        <v>0.5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.487394957983193</v>
+        <v>0.554621848739496</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.023</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.103858422757649</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="M24" t="n">
-        <v>0.250154551691917</v>
+        <v>0.0008335235052487001</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.114345504049821</v>
+        <v>0.562240476291417</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.705882352941177</v>
+        <v>0.957983193277311</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.33</v>
+        <v>3.98</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0035738747553816</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0021487374960229</v>
+        <v>-0.157205098343309</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0100793483869856</v>
+        <v>0.105956849639704</v>
       </c>
       <c r="N25" t="n">
-        <v>1.08299235011564</v>
+        <v>-0.252119112043735</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,46 +2722,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.479092138629972</v>
+        <v>0.0002791521033079</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H26" t="n">
-        <v>0.495798319327731</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0556682211101001</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0004844152621659</v>
+        <v>-0.0836534917570199</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0006595891554571</v>
+        <v>-0.0231736170050264</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-5.30173534381906</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7345420065056339</v>
+        <v>0.314657425498488</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.966386554621849</v>
+        <v>0.875706214689266</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.54</v>
+        <v>10.6</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.037175148334094</v>
+        <v>-0.0050051675298384</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.160550170266652</v>
+        <v>-0.0251589994252798</v>
       </c>
       <c r="M27" t="n">
-        <v>0.045154532967033</v>
+        <v>0.0145617559225885</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.46358851709032</v>
+        <v>-0.0472185616022498</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2904,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0045982444259109</v>
+        <v>0.301833025649939</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.141242937853107</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.275</v>
+        <v>0.011</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0423442164870514</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.074418366856351</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0107183049553933</v>
+        <v>0.0001850031200835</v>
       </c>
       <c r="N28" t="n">
-        <v>-3.32111501859227</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,14 +2995,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.268073046380173</v>
+        <v>0.751779863272109</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H29" t="n">
-        <v>0.869318181818182</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.61</v>
+        <v>220</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.008577299412915899</v>
+        <v>-2.09394937429633</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0290680177457017</v>
+        <v>-7.28073089700997</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0124390125295933</v>
+        <v>2.96550726267522</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0808416532791322</v>
+        <v>-0.9517951701346939</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,43 +3086,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.377279770637229</v>
+        <v>0.999999999998712</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08522727272727269</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.136363636363636</v>
+        <v>0.25</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0001107280914448</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001512669923384</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3188,35 +3188,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.574105154475596</v>
+        <v>0.892945152367666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0056818181818181</v>
+        <v>0.347305389221557</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6590909090909089</v>
+        <v>0.101796407185629</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>211</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.152342951991828</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.34033868636744</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.25629175669405</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0722004511809613</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999999986545504</v>
+        <v>0.0478140829845389</v>
       </c>
       <c r="G32" t="n">
-        <v>0.761904761904762</v>
+        <v>0.131736526946108</v>
       </c>
       <c r="H32" t="n">
-        <v>0.261904761904762</v>
+        <v>0.796407185628742</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.199</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0018769270298047</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0059211393963157</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.943179411962174</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.682110028974418</v>
+        <v>0.999997901062246</v>
       </c>
       <c r="G33" t="n">
-        <v>0.341935483870968</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.109677419354839</v>
+        <v>0.491428571428571</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>7.63</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0236407766990292</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.015401350459385</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0318590544767711</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.30983979946303</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3436,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3446,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,28 +3461,28 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.246765855914309</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0.139240506329114</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H34" t="n">
-        <v>0.810126582278481</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1895</v>
+        <v>0.223</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0005241599905438</v>
+        <v>-0.0033849141240948</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0034656706348331</v>
+        <v>0.003100956918097</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3498,7 +3494,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3525,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,14 +3537,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3556,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999663886761</v>
+        <v>0.776886167314786</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.474285714285714</v>
+        <v>0.621468926553672</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.63</v>
+        <v>0.4</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0256091148115688</v>
+        <v>-0.0030103021978022</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0170356046227705</v>
+        <v>-0.008201603779314601</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0336635944700466</v>
+        <v>0.0019991789819376</v>
       </c>
       <c r="N35" t="n">
-        <v>0.335637153493694</v>
+        <v>-0.7525755494505491</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3614,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,31 +3643,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.687121799348968</v>
+        <v>0.13899653770956</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0397727272727273</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H36" t="n">
-        <v>0.806818181818182</v>
+        <v>0.451977401129944</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.192</v>
+        <v>0.022</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0007128220140515</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0037032345321482</v>
+        <v>-0.0001267116777737</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0019976349958494</v>
+        <v>0.0006694355079105</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.371261465651834</v>
+        <v>1.13481016591065</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,31 +3734,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.85588339033399</v>
+        <v>0.335716041940468</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.602272727272727</v>
+        <v>0.937853107344633</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.38</v>
+        <v>2.91</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0033379026730637</v>
+        <v>0.0168445325166637</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0072410001712834</v>
+        <v>-0.0415425953044343</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0012956806225404</v>
+        <v>0.06715073422010551</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.878395440279932</v>
+        <v>0.578849914661982</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3810,46 +3810,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.395148109952391</v>
+        <v>0.010547790545464</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0113636363636364</v>
+        <v>0.0414201183431953</v>
       </c>
       <c r="H38" t="n">
-        <v>0.426136363636364</v>
+        <v>0.650887573964497</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-0.0188789556962025</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002484693877551</v>
+        <v>-0.0424866182657602</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0003636927985618</v>
+        <v>-0.0061919292540692</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-1.88789556962025</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3916,31 +3916,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.52959215677244</v>
+        <v>0.932015761967376</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.080952380952381</v>
       </c>
       <c r="H39" t="n">
-        <v>0.948571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.51</v>
+        <v>0.011</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0021844006977323</v>
+        <v>-0.000111018237082</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0430912048851873</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0415853722747293</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0870279162443176</v>
+        <v>-1.00925670074606</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3992,14 +3992,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4007,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.029671439767147</v>
+        <v>0.615528675092004</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0404624277456647</v>
+        <v>0.0047619047619047</v>
       </c>
       <c r="H40" t="n">
-        <v>0.653179190751445</v>
+        <v>0.647619047619048</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.18</v>
+        <v>214</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0165670038774771</v>
+        <v>-0.444523326572008</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0359014114805688</v>
+        <v>-4.47537167129554</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0022330256681146</v>
+        <v>2.95222261673577</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.40398337944721</v>
+        <v>-0.207721180641125</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.993395245340376</v>
+        <v>0.999999999999728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0761904761904762</v>
+        <v>0.72636815920398</v>
       </c>
       <c r="H41" t="n">
-        <v>0.152380952380952</v>
+        <v>0.293532338308458</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0001820333914776</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0003077921393985</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.65484901343361</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4174,46 +4174,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.824426940863774</v>
+        <v>0.552084949185054</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0047619047619047</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0.619047619047619</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>215</v>
+        <v>0.22</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.85990543161979</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-5.44226826333854</v>
+        <v>-0.0022029714340161</v>
       </c>
       <c r="M42" t="n">
-        <v>1.47087985595178</v>
+        <v>0.0018202344312842</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.865072293776645</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,46 +4265,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.999999999999971</v>
+        <v>0.872805555649902</v>
       </c>
       <c r="G43" t="n">
-        <v>0.683168316831683</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.336633663366337</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005</v>
+        <v>0.24</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-0.0014955641492265</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-0.0043274866837646</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.000750680581931</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-0.623151728844404</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4367,35 +4367,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.953347582182184</v>
+        <v>0.690104475450338</v>
       </c>
       <c r="G44" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.755208333333333</v>
+        <v>0.932692307692308</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2185</v>
+        <v>3.615</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0017308603622577</v>
+        <v>-0.0123614020950846</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0043234308394656</v>
+        <v>-0.0675629516071316</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.0352606852997723</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.792155772200363</v>
+        <v>-0.341947499172465</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4434,188 +4434,6 @@
         </is>
       </c>
       <c r="W44" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Oroua at U/S AFFCO Feilding</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>20</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.998589243898289</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.819047619047619</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2245</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.0042097969264544</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.0067612295504016</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-0.001675062073444</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-1.87518794051423</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1819686</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5543299</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Oroua at U/S AFFCO Feilding</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>20</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.850452727054501</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-0.0191306794278502</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-0.061910730008121</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.0162612654912057</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.639822054443151</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1819686</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5543299</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
+++ b/trend_results/Rivers/OrouaatUSAFFCOFeilding_2053887edb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -124,67 +124,55 @@
     <t>Turbidity</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
+    <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Extremely likely increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -663,38 +651,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.701211591335973</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0606060606060606</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9090909090909089</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.14</v>
       </c>
       <c r="K2">
-        <v>0.0161069523083624</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.0687196221252479</v>
+        <v>-0.133152841360196</v>
       </c>
       <c r="M2">
-        <v>0.0355823608512662</v>
+        <v>0.0347603432876868</v>
       </c>
       <c r="N2">
-        <v>11.5049659345445</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q2">
         <v>1819686</v>
       </c>
@@ -702,19 +690,19 @@
         <v>5543299</v>
       </c>
       <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,40 +719,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>0.693284313522417</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9830508474576271</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.73</v>
+        <v>10.92</v>
       </c>
       <c r="K3">
-        <v>0.0688240542352385</v>
+        <v>-0.0602060439560436</v>
       </c>
       <c r="L3">
-        <v>-0.0337756153413962</v>
+        <v>-0.13114373642863</v>
       </c>
       <c r="M3">
-        <v>0.153288292633882</v>
+        <v>0.0099199643620555</v>
       </c>
       <c r="N3">
-        <v>0.641417094457023</v>
+        <v>-0.551337398864868</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1819686</v>
@@ -773,19 +761,19 @@
         <v>5543299</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>0.0567971089797818</v>
+        <v>0.0017852362890347</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.355932203389831</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -820,22 +808,22 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>0.0007905844155844</v>
+        <v>0.0014102316602316</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0006880920984109</v>
       </c>
       <c r="M4">
-        <v>0.0017392857142857</v>
+        <v>0.0022271341463414</v>
       </c>
       <c r="N4">
-        <v>7.90584415584416</v>
+        <v>14.1023166023166</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1819686</v>
@@ -844,19 +832,19 @@
         <v>5543299</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
         <v>59</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.128864511560885</v>
+        <v>0.657466326657657</v>
       </c>
       <c r="G5">
         <v>0.0169491525423729</v>
@@ -891,23 +879,23 @@
         <v>160</v>
       </c>
       <c r="K5">
-        <v>19.0234375</v>
+        <v>-3.82893114080165</v>
       </c>
       <c r="L5">
-        <v>-6.95812870536007</v>
+        <v>-21.3982111389218</v>
       </c>
       <c r="M5">
-        <v>59.2609327273473</v>
+        <v>19.2078960711604</v>
       </c>
       <c r="N5">
-        <v>11.8896484375</v>
+        <v>-2.39308196300103</v>
       </c>
       <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
       <c r="Q5">
         <v>1819686</v>
       </c>
@@ -915,19 +903,19 @@
         <v>5543299</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
         <v>60</v>
-      </c>
-      <c r="W5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,22 +932,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>0.0029587243525923</v>
       </c>
       <c r="G6">
-        <v>0.962264150943396</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H6">
-        <v>0.0566037735849057</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>0.005</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1819686</v>
@@ -968,19 +974,19 @@
         <v>5543299</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
         <v>59</v>
-      </c>
-      <c r="V6" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.691470951066496</v>
+        <v>0.950257591495268</v>
       </c>
       <c r="G7">
-        <v>0.389830508474576</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="H7">
         <v>0.11864406779661</v>
@@ -1012,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1027,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1819686</v>
@@ -1039,19 +1045,19 @@
         <v>5543299</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
         <v>59</v>
-      </c>
-      <c r="V7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0002571861240011</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G8">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H8">
         <v>0.915254237288136</v>
@@ -1083,25 +1089,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.209</v>
+        <v>0.194</v>
       </c>
       <c r="K8">
-        <v>0.0362369173165544</v>
+        <v>0.009601288918937601</v>
       </c>
       <c r="L8">
-        <v>0.0185828033729947</v>
+        <v>-0.0037648290491153</v>
       </c>
       <c r="M8">
-        <v>0.0612675466152047</v>
+        <v>0.0338294821254332</v>
       </c>
       <c r="N8">
-        <v>17.3382379505045</v>
+        <v>4.9491179994524</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1819686</v>
@@ -1110,19 +1116,19 @@
         <v>5543299</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
         <v>59</v>
-      </c>
-      <c r="V8" t="s">
-        <v>60</v>
-      </c>
-      <c r="W8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1142,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.391591287251002</v>
+        <v>0.481266464128903</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.706896551724138</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.74</v>
+        <v>7.78</v>
       </c>
       <c r="K9">
-        <v>-0.0046947300771207</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.0352682385166003</v>
+        <v>-0.0364904655888176</v>
       </c>
       <c r="M9">
-        <v>0.0318751082707684</v>
+        <v>0.0392184739934556</v>
       </c>
       <c r="N9">
-        <v>-0.0606554273529809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1819686</v>
@@ -1181,16 +1187,16 @@
         <v>5543299</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,40 +1213,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>0.0002571861240011</v>
+        <v>0.139508156605682</v>
       </c>
       <c r="G10">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.932203389830508</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.222</v>
+        <v>0.217</v>
       </c>
       <c r="K10">
-        <v>0.0405944292549556</v>
+        <v>0.011057758966139</v>
       </c>
       <c r="L10">
-        <v>0.0221655166703701</v>
+        <v>-0.0024737593839541</v>
       </c>
       <c r="M10">
-        <v>0.06380703826927039</v>
+        <v>0.0419270549100903</v>
       </c>
       <c r="N10">
-        <v>18.2857789436737</v>
+        <v>5.09574145905025</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1819686</v>
@@ -1249,19 +1255,19 @@
         <v>5543299</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>58</v>
-      </c>
-      <c r="U10" t="s">
-        <v>59</v>
-      </c>
-      <c r="V10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,37 +1284,37 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>6.0270289221953E-05</v>
+        <v>0.0547699561977743</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.813559322033898</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="K11">
-        <v>0.0519733950490765</v>
+        <v>0.0163482192626214</v>
       </c>
       <c r="L11">
-        <v>0.0350636687456781</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0806738119176188</v>
+        <v>0.0488830326524137</v>
       </c>
       <c r="N11">
-        <v>12.6764378168479</v>
+        <v>4.41843763854634</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
         <v>47</v>
@@ -1320,19 +1326,19 @@
         <v>5543299</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>58</v>
-      </c>
-      <c r="U11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,40 +1355,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>0.0456379939654769</v>
+        <v>0.159851968039581</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.6610169491525421</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="K12">
-        <v>0.0022490763546798</v>
+        <v>0.0011543931731984</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0009278235201227</v>
       </c>
       <c r="M12">
-        <v>0.0046623895492169</v>
+        <v>0.0033724315516062</v>
       </c>
       <c r="N12">
-        <v>10.2230743394536</v>
+        <v>5.4971103485642</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1819686</v>
@@ -1391,19 +1397,19 @@
         <v>5543299</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
         <v>58</v>
-      </c>
-      <c r="U12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V12" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,37 +1426,37 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>0.258001467721793</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.53</v>
+        <v>2.49</v>
       </c>
       <c r="K13">
-        <v>0.176495743508084</v>
+        <v>0.10912345467033</v>
       </c>
       <c r="L13">
-        <v>-0.202825926091272</v>
+        <v>-0.169436089735383</v>
       </c>
       <c r="M13">
-        <v>0.796096814877901</v>
+        <v>0.639214125809027</v>
       </c>
       <c r="N13">
-        <v>4.99987941949247</v>
+        <v>4.38246805904938</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
         <v>45</v>
@@ -1462,19 +1468,19 @@
         <v>5543299</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,43 +1494,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>0.000532015369447</v>
+        <v>0.0002727657512899</v>
       </c>
       <c r="G14">
-        <v>0.0574712643678161</v>
+        <v>0.0365853658536585</v>
       </c>
       <c r="H14">
-        <v>0.804597701149425</v>
+        <v>0.817073170731707</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.455</v>
+        <v>0.435</v>
       </c>
       <c r="K14">
-        <v>-0.0695240207915467</v>
+        <v>-0.09291056166056171</v>
       </c>
       <c r="L14">
-        <v>-0.147297492139212</v>
+        <v>-0.203801086004795</v>
       </c>
       <c r="M14">
-        <v>-0.0313901283431071</v>
+        <v>-0.0400634530771269</v>
       </c>
       <c r="N14">
-        <v>-15.2800045695707</v>
+        <v>-21.3587498070257</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q14">
         <v>1819686</v>
@@ -1533,19 +1539,19 @@
         <v>5543299</v>
       </c>
       <c r="S14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="T14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" t="s">
-        <v>59</v>
-      </c>
-      <c r="V14" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>0.90412746054159</v>
@@ -1571,31 +1577,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.915966386554622</v>
+        <v>0.92436974789916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.59</v>
+        <v>10.63</v>
       </c>
       <c r="K15">
-        <v>0.0321098901098901</v>
+        <v>0.0295350404312662</v>
       </c>
       <c r="L15">
-        <v>-0.0099704296963783</v>
+        <v>-0.0050051402857634</v>
       </c>
       <c r="M15">
-        <v>0.06622679948756489</v>
+        <v>0.0561732629497246</v>
       </c>
       <c r="N15">
-        <v>0.303209538337017</v>
+        <v>0.277846100011912</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1819686</v>
@@ -1604,19 +1610,19 @@
         <v>5543299</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
         <v>58</v>
-      </c>
-      <c r="U15" t="s">
-        <v>59</v>
-      </c>
-      <c r="V15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.276116469544887</v>
+        <v>0.153558833384723</v>
       </c>
       <c r="G16">
-        <v>0.0672268907563025</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H16">
-        <v>0.184873949579832</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1654,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0001332400836832</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0003415783985479</v>
+        <v>0.0003985810750617</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
         <v>45</v>
@@ -1675,19 +1681,19 @@
         <v>5543299</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
         <v>59</v>
-      </c>
-      <c r="V16" t="s">
-        <v>60</v>
-      </c>
-      <c r="W16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,40 +1710,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0.708518955573208</v>
+        <v>0.849913357607701</v>
       </c>
       <c r="G17">
         <v>0.008403361344537799</v>
       </c>
       <c r="H17">
-        <v>0.680672268907563</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K17">
-        <v>-3.32347588717015</v>
+        <v>-5.44368695086235</v>
       </c>
       <c r="L17">
-        <v>-13.8200618195722</v>
+        <v>-14.6616008659057</v>
       </c>
       <c r="M17">
-        <v>7.21548860025881</v>
+        <v>3.12459963048816</v>
       </c>
       <c r="N17">
-        <v>-1.54580273821868</v>
+        <v>-2.72184347543117</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1819686</v>
@@ -1746,19 +1752,19 @@
         <v>5543299</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
         <v>60</v>
-      </c>
-      <c r="W17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.801647587504535</v>
+        <v>0.009668249224424301</v>
       </c>
       <c r="G18">
-        <v>0.954954954954955</v>
+        <v>0.936936936936937</v>
       </c>
       <c r="H18">
-        <v>0.0720720720720721</v>
+        <v>0.0900900900900901</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1805,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1819686</v>
@@ -1817,19 +1823,19 @@
         <v>5543299</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
         <v>59</v>
-      </c>
-      <c r="V18" t="s">
-        <v>60</v>
-      </c>
-      <c r="W18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1843,19 +1849,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0.996196925410062</v>
+        <v>0.999965498338943</v>
       </c>
       <c r="G19">
-        <v>0.294117647058824</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="H19">
-        <v>0.134453781512605</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1864,22 +1870,22 @@
         <v>0.003</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0001625500667556</v>
       </c>
       <c r="L19">
-        <v>-0.0002118471955237</v>
+        <v>-0.0003023551389101</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-5.41833555852247</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1819686</v>
@@ -1888,19 +1894,19 @@
         <v>5543299</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
         <v>59</v>
-      </c>
-      <c r="V19" t="s">
-        <v>60</v>
-      </c>
-      <c r="W19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0009216716876499</v>
+        <v>0.07707780595652119</v>
       </c>
       <c r="G20">
-        <v>0.142857142857143</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H20">
         <v>0.823529411764706</v>
@@ -1932,22 +1938,22 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.209</v>
+        <v>0.199</v>
       </c>
       <c r="K20">
-        <v>0.008361950549450501</v>
+        <v>0.0019959016393442</v>
       </c>
       <c r="L20">
-        <v>0.001966729505147</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0134285200798416</v>
+        <v>0.008019518736454199</v>
       </c>
       <c r="N20">
-        <v>4.00093327724907</v>
+        <v>1.00296564791169</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
         <v>47</v>
@@ -1959,19 +1965,19 @@
         <v>5543299</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
         <v>59</v>
-      </c>
-      <c r="V20" t="s">
-        <v>60</v>
-      </c>
-      <c r="W20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1988,40 +1994,40 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21">
-        <v>0.984584052685879</v>
+        <v>0.984760272000851</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.542372881355932</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.685</v>
+        <v>7.695</v>
       </c>
       <c r="K21">
-        <v>0.0149938423645321</v>
+        <v>0.0158804347826088</v>
       </c>
       <c r="L21">
-        <v>0.0031255987083033</v>
+        <v>0.0033465474387635</v>
       </c>
       <c r="M21">
-        <v>0.0265857801531647</v>
+        <v>0.027669433733789</v>
       </c>
       <c r="N21">
-        <v>0.195105300774653</v>
+        <v>0.206373421476397</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1819686</v>
@@ -2030,16 +2036,16 @@
         <v>5543299</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,37 +2062,37 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0.0019176389445339</v>
+        <v>0.06381621881079751</v>
       </c>
       <c r="G22">
         <v>0.0504201680672269</v>
       </c>
       <c r="H22">
-        <v>0.831932773109244</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.222</v>
+        <v>0.217</v>
       </c>
       <c r="K22">
-        <v>0.009164575729927</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L22">
-        <v>0.0040193656052017</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.014183720902255</v>
+        <v>0.009363244386520701</v>
       </c>
       <c r="N22">
-        <v>4.12818726573289</v>
+        <v>1.84964804780473</v>
       </c>
       <c r="O22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
         <v>47</v>
@@ -2098,19 +2104,19 @@
         <v>5543299</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>58</v>
-      </c>
-      <c r="U22" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2130,13 +2136,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0581967915044777</v>
+        <v>0.447897285844433</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.705882352941177</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2145,23 +2151,23 @@
         <v>0.41</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-0.0066469517743403</v>
+      </c>
+      <c r="M23">
         <v>0.007996715927750401</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.0166704701049749</v>
-      </c>
       <c r="N23">
-        <v>1.95041851896351</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
         <v>41</v>
       </c>
-      <c r="P23" t="s">
-        <v>44</v>
-      </c>
       <c r="Q23">
         <v>1819686</v>
       </c>
@@ -2169,19 +2175,19 @@
         <v>5543299</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>58</v>
-      </c>
-      <c r="U23" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,41 +2204,41 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.5104539319183909</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.554621848739496</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.000748974709501</v>
+        <v>-0.000596452125776</v>
       </c>
       <c r="M24">
-        <v>0.0008335235052487001</v>
+        <v>0.0008298859709248</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
         <v>41</v>
       </c>
-      <c r="P24" t="s">
-        <v>53</v>
-      </c>
       <c r="Q24">
         <v>1819686</v>
       </c>
@@ -2240,19 +2246,19 @@
         <v>5543299</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
         <v>58</v>
-      </c>
-      <c r="U24" t="s">
-        <v>59</v>
-      </c>
-      <c r="V24" t="s">
-        <v>60</v>
-      </c>
-      <c r="W24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,41 +2275,41 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>0.562240476291417</v>
+        <v>0.582724924545042</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.957983193277311</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.98</v>
+        <v>3.53</v>
       </c>
       <c r="K25">
-        <v>-0.0100343406593407</v>
+        <v>-0.0159934318555008</v>
       </c>
       <c r="L25">
-        <v>-0.157205098343309</v>
+        <v>-0.139942970081275</v>
       </c>
       <c r="M25">
-        <v>0.105956849639704</v>
+        <v>0.08668690811335721</v>
       </c>
       <c r="N25">
-        <v>-0.252119112043735</v>
+        <v>-0.453071723951864</v>
       </c>
       <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
         <v>41</v>
       </c>
-      <c r="P25" t="s">
-        <v>53</v>
-      </c>
       <c r="Q25">
         <v>1819686</v>
       </c>
@@ -2311,19 +2317,19 @@
         <v>5543299</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,40 +2346,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>0.0002791521033079</v>
+        <v>0.0001371365383989</v>
       </c>
       <c r="G26">
-        <v>0.0434782608695652</v>
+        <v>0.0458015267175573</v>
       </c>
       <c r="H26">
-        <v>0.695652173913043</v>
+        <v>0.717557251908397</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.0556682211101001</v>
+        <v>-0.0549774220032841</v>
       </c>
       <c r="L26">
-        <v>-0.0836534917570199</v>
+        <v>-0.08362125265795139</v>
       </c>
       <c r="M26">
-        <v>-0.0231736170050264</v>
+        <v>-0.0214653644943759</v>
       </c>
       <c r="N26">
-        <v>-5.30173534381906</v>
+        <v>-6.10860244480934</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q26">
         <v>1819686</v>
@@ -2382,19 +2388,19 @@
         <v>5543299</v>
       </c>
       <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="T26" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" t="s">
-        <v>59</v>
-      </c>
-      <c r="V26" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,16 +2417,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>0.314657425498488</v>
+        <v>0.5407760787256231</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.875706214689266</v>
+        <v>0.858757062146893</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2429,22 +2435,22 @@
         <v>10.6</v>
       </c>
       <c r="K27">
-        <v>-0.0050051675298384</v>
+        <v>0.003087381971688</v>
       </c>
       <c r="L27">
-        <v>-0.0251589994252798</v>
+        <v>-0.0183933972122429</v>
       </c>
       <c r="M27">
-        <v>0.0145617559225885</v>
+        <v>0.0199726589200274</v>
       </c>
       <c r="N27">
-        <v>-0.0472185616022498</v>
+        <v>0.0291262450159251</v>
       </c>
       <c r="O27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q27">
         <v>1819686</v>
@@ -2453,19 +2459,19 @@
         <v>5543299</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" t="s">
         <v>58</v>
-      </c>
-      <c r="U27" t="s">
-        <v>59</v>
-      </c>
-      <c r="V27" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,40 +2488,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>0.301833025649939</v>
+        <v>0.0666722598650723</v>
       </c>
       <c r="G28">
-        <v>0.0903954802259887</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="H28">
-        <v>0.141242937853107</v>
+        <v>0.124293785310734</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>9.45263975155279E-05</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0001850031200835</v>
+        <v>0.0002662172011661</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.945263975155279</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1819686</v>
@@ -2524,19 +2530,19 @@
         <v>5543299</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" t="s">
         <v>59</v>
-      </c>
-      <c r="V28" t="s">
-        <v>60</v>
-      </c>
-      <c r="W28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,40 +2559,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>0.751779863272109</v>
+        <v>0.882003524738908</v>
       </c>
       <c r="G29">
         <v>0.0056497175141242</v>
       </c>
       <c r="H29">
-        <v>0.677966101694915</v>
+        <v>0.706214689265537</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K29">
-        <v>-2.09394937429633</v>
+        <v>-3.47857142857143</v>
       </c>
       <c r="L29">
-        <v>-7.28073089700997</v>
+        <v>-8.15053385724633</v>
       </c>
       <c r="M29">
-        <v>2.96550726267522</v>
+        <v>1.30698262268798</v>
       </c>
       <c r="N29">
-        <v>-0.9517951701346939</v>
+        <v>-1.64083557951482</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1819686</v>
@@ -2595,19 +2601,19 @@
         <v>5543299</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" t="s">
         <v>60</v>
-      </c>
-      <c r="W29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.999999999998712</v>
+        <v>0.999999986719004</v>
       </c>
       <c r="G30">
-        <v>0.767857142857143</v>
+        <v>0.779761904761905</v>
       </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2654,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1819686</v>
@@ -2666,19 +2672,19 @@
         <v>5543299</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" t="s">
         <v>59</v>
-      </c>
-      <c r="V30" t="s">
-        <v>60</v>
-      </c>
-      <c r="W30" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>0.892945152367666</v>
+        <v>0.98765374158279</v>
       </c>
       <c r="G31">
-        <v>0.347305389221557</v>
+        <v>0.361581920903955</v>
       </c>
       <c r="H31">
-        <v>0.101796407185629</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2716,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-9.73908670761649E-05</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2725,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1819686</v>
@@ -2737,19 +2743,19 @@
         <v>5543299</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" t="s">
         <v>59</v>
-      </c>
-      <c r="V31" t="s">
-        <v>60</v>
-      </c>
-      <c r="W31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2766,40 +2772,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>0.0478140829845389</v>
+        <v>0.220366573806627</v>
       </c>
       <c r="G32">
-        <v>0.131736526946108</v>
+        <v>0.129943502824859</v>
       </c>
       <c r="H32">
-        <v>0.796407185628742</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.199</v>
+        <v>0.19</v>
       </c>
       <c r="K32">
-        <v>0.0018769270298047</v>
+        <v>6.256423432682429E-05</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-0.0003443160966905</v>
       </c>
       <c r="M32">
-        <v>0.0059211393963157</v>
+        <v>0.002477322591642</v>
       </c>
       <c r="N32">
-        <v>0.943179411962174</v>
+        <v>0.0329285443825391</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1819686</v>
@@ -2808,19 +2814,19 @@
         <v>5543299</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
         <v>59</v>
-      </c>
-      <c r="V32" t="s">
-        <v>60</v>
-      </c>
-      <c r="W32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2837,40 +2843,40 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33">
-        <v>0.999997901062246</v>
+        <v>0.999876010118099</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.491428571428571</v>
+        <v>0.468571428571429</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.63</v>
+        <v>7.68</v>
       </c>
       <c r="K33">
-        <v>0.0236407766990292</v>
+        <v>0.0165821731234866</v>
       </c>
       <c r="L33">
-        <v>0.015401350459385</v>
+        <v>0.0088438256658594</v>
       </c>
       <c r="M33">
-        <v>0.0318590544767711</v>
+        <v>0.024173367008445</v>
       </c>
       <c r="N33">
-        <v>0.30983979946303</v>
+        <v>0.215913712545399</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1819686</v>
@@ -2879,16 +2885,16 @@
         <v>5543299</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.424389947181905</v>
       </c>
       <c r="G34">
         <v>0.0338983050847458</v>
@@ -2920,26 +2926,26 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.223</v>
+        <v>0.205</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.0003994535441921</v>
       </c>
       <c r="L34">
-        <v>-0.0033849141240948</v>
+        <v>-0.0023004171222687</v>
       </c>
       <c r="M34">
-        <v>0.003100956918097</v>
+        <v>0.0030743404929999</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.194855387410791</v>
       </c>
       <c r="O34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" t="s">
         <v>41</v>
       </c>
-      <c r="P34" t="s">
-        <v>53</v>
-      </c>
       <c r="Q34">
         <v>1819686</v>
       </c>
@@ -2947,19 +2953,19 @@
         <v>5543299</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>58</v>
-      </c>
-      <c r="U34" t="s">
-        <v>59</v>
-      </c>
-      <c r="V34" t="s">
-        <v>60</v>
-      </c>
-      <c r="W34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,40 +2982,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>0.776886167314786</v>
+        <v>0.890788713841338</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.621468926553672</v>
+        <v>0.598870056497175</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K35">
-        <v>-0.0030103021978022</v>
+        <v>-0.0038722834897883</v>
       </c>
       <c r="L35">
-        <v>-0.008201603779314601</v>
+        <v>-0.007902805622645099</v>
       </c>
       <c r="M35">
-        <v>0.0019991789819376</v>
+        <v>0.0004590729575072</v>
       </c>
       <c r="N35">
-        <v>-0.7525755494505491</v>
+        <v>-0.992893202509831</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1819686</v>
@@ -3018,19 +3024,19 @@
         <v>5543299</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>58</v>
-      </c>
-      <c r="U35" t="s">
-        <v>59</v>
-      </c>
-      <c r="V35" t="s">
-        <v>60</v>
-      </c>
-      <c r="W35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3047,37 +3053,37 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>0.13899653770956</v>
+        <v>0.227243980660169</v>
       </c>
       <c r="G36">
         <v>0.0112994350282486</v>
       </c>
       <c r="H36">
-        <v>0.451977401129944</v>
+        <v>0.446327683615819</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="K36">
-        <v>0.0002496582365003</v>
+        <v>0.0001814906832298</v>
       </c>
       <c r="L36">
-        <v>-0.0001267116777737</v>
+        <v>-0.0001438573802095</v>
       </c>
       <c r="M36">
-        <v>0.0006694355079105</v>
+        <v>0.000498548085789</v>
       </c>
       <c r="N36">
-        <v>1.13481016591065</v>
+        <v>0.864241348713399</v>
       </c>
       <c r="O36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P36" t="s">
         <v>45</v>
@@ -3089,19 +3095,19 @@
         <v>5543299</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
+        <v>54</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" t="s">
         <v>58</v>
-      </c>
-      <c r="U36" t="s">
-        <v>59</v>
-      </c>
-      <c r="V36" t="s">
-        <v>60</v>
-      </c>
-      <c r="W36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3118,41 +3124,41 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37">
-        <v>0.335716041940468</v>
+        <v>0.563912793522623</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.937853107344633</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.91</v>
+        <v>2.69</v>
       </c>
       <c r="K37">
-        <v>0.0168445325166637</v>
+        <v>-0.0061315149116432</v>
       </c>
       <c r="L37">
-        <v>-0.0415425953044343</v>
+        <v>-0.0615182473564793</v>
       </c>
       <c r="M37">
-        <v>0.06715073422010551</v>
+        <v>0.0403851568592261</v>
       </c>
       <c r="N37">
-        <v>0.578849914661982</v>
+        <v>-0.227937357310159</v>
       </c>
       <c r="O37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
         <v>41</v>
       </c>
-      <c r="P37" t="s">
-        <v>53</v>
-      </c>
       <c r="Q37">
         <v>1819686</v>
       </c>
@@ -3160,19 +3166,19 @@
         <v>5543299</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3189,40 +3195,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>0.010547790545464</v>
+        <v>0.005993332518156</v>
       </c>
       <c r="G38">
-        <v>0.0414201183431953</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="H38">
-        <v>0.650887573964497</v>
+        <v>0.6463414634146341</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="K38">
-        <v>-0.0188789556962025</v>
+        <v>-0.018795025728988</v>
       </c>
       <c r="L38">
-        <v>-0.0424866182657602</v>
+        <v>-0.0445242259566885</v>
       </c>
       <c r="M38">
-        <v>-0.0061919292540692</v>
+        <v>-0.006410181224134</v>
       </c>
       <c r="N38">
-        <v>-1.88789556962025</v>
+        <v>-1.88894730944603</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q38">
         <v>1819686</v>
@@ -3231,19 +3237,19 @@
         <v>5543299</v>
       </c>
       <c r="S38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" t="s">
         <v>57</v>
-      </c>
-      <c r="T38" t="s">
-        <v>58</v>
-      </c>
-      <c r="U38" t="s">
-        <v>59</v>
-      </c>
-      <c r="V38" t="s">
-        <v>60</v>
-      </c>
-      <c r="W38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3260,16 +3266,16 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F39">
-        <v>0.932015761967376</v>
+        <v>0.775971426733851</v>
       </c>
       <c r="G39">
-        <v>0.080952380952381</v>
+        <v>0.0849056603773585</v>
       </c>
       <c r="H39">
-        <v>0.142857142857143</v>
+        <v>0.132075471698113</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3278,22 +3284,22 @@
         <v>0.011</v>
       </c>
       <c r="K39">
-        <v>-0.000111018237082</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0002496582365003</v>
+        <v>-0.0001773972844451</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-1.00925670074606</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q39">
         <v>1819686</v>
@@ -3302,19 +3308,19 @@
         <v>5543299</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" t="s">
         <v>59</v>
-      </c>
-      <c r="V39" t="s">
-        <v>60</v>
-      </c>
-      <c r="W39" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3331,40 +3337,40 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40">
-        <v>0.615528675092004</v>
+        <v>0.858410499350133</v>
       </c>
       <c r="G40">
-        <v>0.0047619047619047</v>
+        <v>0.0047169811320754</v>
       </c>
       <c r="H40">
-        <v>0.647619047619048</v>
+        <v>0.688679245283019</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>214</v>
+        <v>212.65</v>
       </c>
       <c r="K40">
-        <v>-0.444523326572008</v>
+        <v>-2.29657244091075</v>
       </c>
       <c r="L40">
-        <v>-4.47537167129554</v>
+        <v>-6.0974142203008</v>
       </c>
       <c r="M40">
-        <v>2.95222261673577</v>
+        <v>1.21335912747192</v>
       </c>
       <c r="N40">
-        <v>-0.207721180641125</v>
+        <v>-1.07997763503915</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q40">
         <v>1819686</v>
@@ -3373,19 +3379,19 @@
         <v>5543299</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
         <v>60</v>
-      </c>
-      <c r="W40" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3402,16 +3408,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41">
-        <v>0.999999999999728</v>
+        <v>0.999999962704219</v>
       </c>
       <c r="G41">
-        <v>0.72636815920398</v>
+        <v>0.748768472906404</v>
       </c>
       <c r="H41">
-        <v>0.293532338308458</v>
+        <v>0.270935960591133</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3432,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q41">
         <v>1819686</v>
@@ -3444,19 +3450,19 @@
         <v>5543299</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" t="s">
         <v>59</v>
-      </c>
-      <c r="V41" t="s">
-        <v>60</v>
-      </c>
-      <c r="W41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3473,41 +3479,41 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42">
-        <v>0.552084949185054</v>
+        <v>0.52060014391076</v>
       </c>
       <c r="G42">
-        <v>0.114583333333333</v>
+        <v>0.118556701030928</v>
       </c>
       <c r="H42">
-        <v>0.770833333333333</v>
+        <v>0.778350515463918</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.22</v>
+        <v>0.1995</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>-0.0022029714340161</v>
+        <v>-0.001735032987095</v>
       </c>
       <c r="M42">
-        <v>0.0018202344312842</v>
+        <v>0.0011592635769665</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" t="s">
         <v>41</v>
       </c>
-      <c r="P42" t="s">
-        <v>53</v>
-      </c>
       <c r="Q42">
         <v>1819686</v>
       </c>
@@ -3515,19 +3521,19 @@
         <v>5543299</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U42" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" t="s">
         <v>59</v>
-      </c>
-      <c r="V42" t="s">
-        <v>60</v>
-      </c>
-      <c r="W42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3544,40 +3550,40 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>0.872805555649902</v>
+        <v>0.7972866346954161</v>
       </c>
       <c r="G43">
-        <v>0.0333333333333333</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="H43">
-        <v>0.857142857142857</v>
+        <v>0.8490566037735851</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43">
-        <v>0.24</v>
+        <v>0.205</v>
       </c>
       <c r="K43">
-        <v>-0.0014955641492265</v>
+        <v>-0.0007966194111232</v>
       </c>
       <c r="L43">
-        <v>-0.0043274866837646</v>
+        <v>-0.0028948064021616</v>
       </c>
       <c r="M43">
-        <v>0.000750680581931</v>
+        <v>0.0010029898502917</v>
       </c>
       <c r="N43">
-        <v>-0.623151728844404</v>
+        <v>-0.388594834694258</v>
       </c>
       <c r="O43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1819686</v>
@@ -3586,19 +3592,19 @@
         <v>5543299</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" t="s">
         <v>58</v>
-      </c>
-      <c r="U43" t="s">
-        <v>59</v>
-      </c>
-      <c r="V43" t="s">
-        <v>60</v>
-      </c>
-      <c r="W43" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,40 +3621,40 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44">
-        <v>0.690104475450338</v>
+        <v>0.828696390369701</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.932692307692308</v>
+        <v>0.914691943127962</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>3.615</v>
+        <v>3.07</v>
       </c>
       <c r="K44">
-        <v>-0.0123614020950846</v>
+        <v>-0.0200102060035092</v>
       </c>
       <c r="L44">
-        <v>-0.0675629516071316</v>
+        <v>-0.0668046316342757</v>
       </c>
       <c r="M44">
-        <v>0.0352606852997723</v>
+        <v>0.0176497278138973</v>
       </c>
       <c r="N44">
-        <v>-0.341947499172465</v>
+        <v>-0.651798241156651</v>
       </c>
       <c r="O44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q44">
         <v>1819686</v>
@@ -3657,19 +3663,19 @@
         <v>5543299</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
